--- a/biology/Zoologie/Danio_choprae/Danio_choprae.xlsx
+++ b/biology/Zoologie/Danio_choprae/Danio_choprae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Danio choprai · Danio rubis
-Danio choprae[2], communément appelé le Danio rubis[réf. nécessaire], est une espèce de poissons d'eau douce de la famille des Cyprinidae endémique de Birmanie.
+Danio choprae, communément appelé le Danio rubis[réf. nécessaire], est une espèce de poissons d'eau douce de la famille des Cyprinidae endémique de Birmanie.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Danio choprae a été décrite en 1928 par l'ichtyologiste indien Sunder Lal Hora (1896–1955).
 </t>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Danio choprae est endémique d'un affluent fleuve Irrawaddy dans le Nord de la Birmanie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Danio choprae est endémique d'un affluent fleuve Irrawaddy dans le Nord de la Birmanie.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Danio choprae mesure jusqu'à 38,6 mm de longueur totale[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Danio choprae mesure jusqu'à 38,6 mm de longueur totale.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, choprae, lui a été donnée en l'honneur du zoologiste indien Bashambhar Nath Chopra (d) (1898-1966) qui a collecté le spécimen type[4]. À noter que Chopra étant un homme, le suffixe ne devrait pas être ae, celui-ci s'appliquant conventionnellement aux femmes[4]. Sunder Lal Hora a donc fait une erreur qu'il a reconnue dans une publication ultérieur[4]. Ce qui explique pourquoi cette espèce est parfois orthographiée Danio choprai ; toutefois la graphie originale reste correcte dans la mesure où d'autre noms masculins se terminant par un « a » ont donné lieu à une terminaison en ae[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, choprae, lui a été donnée en l'honneur du zoologiste indien Bashambhar Nath Chopra (d) (1898-1966) qui a collecté le spécimen type. À noter que Chopra étant un homme, le suffixe ne devrait pas être ae, celui-ci s'appliquant conventionnellement aux femmes. Sunder Lal Hora a donc fait une erreur qu'il a reconnue dans une publication ultérieur. Ce qui explique pourquoi cette espèce est parfois orthographiée Danio choprai ; toutefois la graphie originale reste correcte dans la mesure où d'autre noms masculins se terminant par un « a » ont donné lieu à une terminaison en ae.
 </t>
         </is>
       </c>
@@ -637,6 +657,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
